--- a/data/trans_orig/P14C18-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C18-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{583547C2-9BA4-412A-807F-1051A64FC4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86721E58-C31B-4F9C-9DEA-0352F27B9339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86DE19D9-67AC-453D-929B-55D04835647C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C53878B1-D3FD-40F3-B6D7-8941A781DE5B}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="160">
   <si>
     <t>Población según el tiempo de diagnóstico del mala circulación en 2015 (Tasa respuesta: 4,45%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>68,57%</t>
   </si>
   <si>
-    <t>24,71%</t>
+    <t>24,21%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>52,1%</t>
   </si>
   <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
   </si>
   <si>
     <t>60,33%</t>
   </si>
   <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>75,29%</t>
+    <t>75,79%</t>
   </si>
   <si>
     <t>47,9%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
   </si>
   <si>
     <t>39,67%</t>
   </si>
   <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -158,19 +158,19 @@
     <t>71,29%</t>
   </si>
   <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>69,87%</t>
   </si>
   <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
   </si>
   <si>
     <t>18,73%</t>
@@ -185,19 +185,19 @@
     <t>12,11%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
   </si>
   <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
   </si>
   <si>
     <t>15,62%</t>
@@ -209,19 +209,19 @@
     <t>16,59%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
   </si>
   <si>
     <t>16,35%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -230,70 +230,67 @@
     <t>87,08%</t>
   </si>
   <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
   </si>
   <si>
     <t>76,6%</t>
   </si>
   <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
   </si>
   <si>
     <t>79,49%</t>
   </si>
   <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
   </si>
   <si>
     <t>12,92%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
   </si>
   <si>
     <t>19,51%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
   </si>
   <si>
     <t>17,69%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
+    <t>14,0%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>9,25%</t>
+    <t>9,76%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -302,58 +299,58 @@
     <t>79,93%</t>
   </si>
   <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
   </si>
   <si>
     <t>86,45%</t>
   </si>
   <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
   </si>
   <si>
     <t>13,07%</t>
   </si>
   <si>
-    <t>41,04%</t>
+    <t>42,59%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>29,3%</t>
+    <t>30,4%</t>
   </si>
   <si>
     <t>3,98%</t>
@@ -362,7 +359,7 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>8,52%</t>
+    <t>6,11%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -371,31 +368,31 @@
     <t>95,33%</t>
   </si>
   <si>
-    <t>73,79%</t>
+    <t>77,17%</t>
   </si>
   <si>
     <t>80,14%</t>
   </si>
   <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>26,21%</t>
+    <t>22,83%</t>
   </si>
   <si>
     <t>10,51%</t>
@@ -404,16 +401,16 @@
     <t>4,61%</t>
   </si>
   <si>
-    <t>21,0%</t>
+    <t>21,04%</t>
   </si>
   <si>
     <t>9,44%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -422,73 +419,73 @@
     <t>9,35%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
   </si>
   <si>
     <t>7,64%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
   </si>
   <si>
     <t>81,64%</t>
   </si>
   <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
   </si>
   <si>
     <t>4,39%</t>
@@ -497,25 +494,25 @@
     <t>1,12%</t>
   </si>
   <si>
-    <t>13,17%</t>
+    <t>12,21%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -930,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F851EBC9-70B3-40D1-92A2-9BC3EE92E4BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36951604-D478-4F13-AD4E-D58E3EDD149D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1583,13 +1580,13 @@
         <v>2421</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1598,13 +1595,13 @@
         <v>2421</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,7 +1657,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1672,13 +1669,13 @@
         <v>12366</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -1687,13 +1684,13 @@
         <v>50331</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -1702,13 +1699,13 @@
         <v>62697</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1723,13 +1720,13 @@
         <v>2022</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1738,13 +1735,13 @@
         <v>6719</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -1753,13 +1750,13 @@
         <v>8741</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1774,13 +1771,13 @@
         <v>1084</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1795,7 +1792,7 @@
         <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -1804,13 +1801,13 @@
         <v>1084</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1866,7 +1863,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1878,10 +1875,10 @@
         <v>16000</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
@@ -1893,13 +1890,13 @@
         <v>60173</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>67</v>
@@ -1908,13 +1905,13 @@
         <v>76174</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,13 +1926,13 @@
         <v>783</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -1944,13 +1941,13 @@
         <v>7888</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -1959,13 +1956,13 @@
         <v>8671</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,7 +1983,7 @@
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -1995,13 +1992,13 @@
         <v>7020</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2010,13 +2007,13 @@
         <v>7020</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,13 +2081,13 @@
         <v>63756</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H24" s="7">
         <v>167</v>
@@ -2099,13 +2096,13 @@
         <v>193641</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M24" s="7">
         <v>231</v>
@@ -2114,13 +2111,13 @@
         <v>257397</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,13 +2132,13 @@
         <v>10911</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -2150,13 +2147,13 @@
         <v>35556</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -2165,13 +2162,13 @@
         <v>46467</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,13 +2183,13 @@
         <v>3429</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -2201,13 +2198,13 @@
         <v>16815</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -2216,13 +2213,13 @@
         <v>20243</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,7 +2275,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C18-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C18-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86721E58-C31B-4F9C-9DEA-0352F27B9339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E22E5754-11FE-4E0F-8846-641AF5141524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C53878B1-D3FD-40F3-B6D7-8941A781DE5B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AFED81B9-0DEB-4D51-80C2-A59E0A38FF38}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="160">
-  <si>
-    <t>Población según el tiempo de diagnóstico del mala circulación en 2015 (Tasa respuesta: 4,45%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="158">
+  <si>
+    <t>Población según el tiempo de diagnóstico del mala circulación en 2016 (Tasa respuesta: 4,45%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -74,7 +74,7 @@
     <t>68,57%</t>
   </si>
   <si>
-    <t>24,21%</t>
+    <t>26,57%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,274 +83,271 @@
     <t>52,1%</t>
   </si>
   <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>De 1 a 4 años</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>Ultimos 12 meses</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>De 1 a 4 años</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>Ultimos 12 meses</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>79,93%</t>
   </si>
   <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
   </si>
   <si>
     <t>86,45%</t>
   </si>
   <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>13,07%</t>
   </si>
   <si>
-    <t>42,59%</t>
+    <t>36,59%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>30,4%</t>
+    <t>39,19%</t>
   </si>
   <si>
     <t>3,98%</t>
@@ -359,7 +356,7 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>6,11%</t>
+    <t>9,15%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -368,49 +365,49 @@
     <t>95,33%</t>
   </si>
   <si>
-    <t>77,17%</t>
+    <t>74,39%</t>
   </si>
   <si>
     <t>80,14%</t>
   </si>
   <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>22,83%</t>
+    <t>25,61%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
   </si>
   <si>
     <t>9,44%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -419,100 +416,97 @@
     <t>9,35%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
   </si>
   <si>
     <t>7,64%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
   </si>
   <si>
     <t>81,64%</t>
   </si>
   <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
+    <t>3,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36951604-D478-4F13-AD4E-D58E3EDD149D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA7433A-1C8E-4521-8C67-C88018F13FBA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1469,7 +1463,7 @@
         <v>64</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>41</v>
@@ -1478,13 +1472,13 @@
         <v>47753</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M12" s="7">
         <v>63</v>
@@ -1493,13 +1487,13 @@
         <v>68437</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1514,13 +1508,13 @@
         <v>3069</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -1529,13 +1523,13 @@
         <v>12165</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -1544,13 +1538,13 @@
         <v>15234</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1571,7 +1565,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1580,13 +1574,13 @@
         <v>2421</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1595,13 +1589,13 @@
         <v>2421</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,7 +1651,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1669,13 +1663,13 @@
         <v>12366</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -1684,13 +1678,13 @@
         <v>50331</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -1699,13 +1693,13 @@
         <v>62697</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1720,13 +1714,13 @@
         <v>2022</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1735,13 +1729,13 @@
         <v>6719</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -1750,13 +1744,13 @@
         <v>8741</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1771,13 +1765,13 @@
         <v>1084</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1792,7 +1786,7 @@
         <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -1801,13 +1795,13 @@
         <v>1084</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1863,7 +1857,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1875,10 +1869,10 @@
         <v>16000</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
@@ -1890,13 +1884,13 @@
         <v>60173</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>67</v>
@@ -1905,13 +1899,13 @@
         <v>76174</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,13 +1920,13 @@
         <v>783</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -1941,13 +1935,13 @@
         <v>7888</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -1956,13 +1950,13 @@
         <v>8671</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,7 +1977,7 @@
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -1992,13 +1986,13 @@
         <v>7020</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2007,13 +2001,13 @@
         <v>7020</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2081,13 +2075,13 @@
         <v>63756</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H24" s="7">
         <v>167</v>
@@ -2096,13 +2090,13 @@
         <v>193641</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M24" s="7">
         <v>231</v>
@@ -2111,13 +2105,13 @@
         <v>257397</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,13 +2126,13 @@
         <v>10911</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -2147,13 +2141,13 @@
         <v>35556</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -2162,13 +2156,13 @@
         <v>46467</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,13 +2177,13 @@
         <v>3429</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -2198,13 +2192,13 @@
         <v>16815</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -2213,13 +2207,13 @@
         <v>20243</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,7 +2269,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
